--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43002,6 +43002,41 @@
         <v>91200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>328700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43037,6 +43037,43 @@
         <v>328700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43074,6 +43074,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>444500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43109,6 +43109,41 @@
         <v>444500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>502100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,6 +43144,41 @@
         <v>502100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>108300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43179,6 +43179,41 @@
         <v>108300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>953200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43214,6 +43214,41 @@
         <v>953200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>136400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43249,6 +43249,41 @@
         <v>136400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>453100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43284,41 @@
         <v>453100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>162300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43319,6 +43319,41 @@
         <v>162300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>332700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43354,6 +43354,41 @@
         <v>332700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>845100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,6 +43389,41 @@
         <v>845100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>186500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,76 @@
         <v>186500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>144600</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2412600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43494,6 +43494,76 @@
         <v>2412600</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>114300</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>192900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,41 @@
         <v>192900</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>141000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>87700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,41 @@
         <v>87700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>268800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,76 @@
         <v>268800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>224800</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>309600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43774,6 +43774,41 @@
         <v>309600</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>173200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,41 @@
         <v>173200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1137200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71774,6 +71774,41 @@
         <v>1137200</v>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>568800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71809,6 +71809,41 @@
         <v>568800</v>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>161100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71844,6 +71844,41 @@
         <v>161100</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>348400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71879,6 +71879,41 @@
         <v>348400</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>484500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2042"/>
+  <dimension ref="A1:I2043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71914,6 +71914,41 @@
         <v>484500</v>
       </c>
     </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>359700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2043"/>
+  <dimension ref="A1:I2044"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71949,6 +71949,41 @@
         <v>359700</v>
       </c>
     </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>432400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71984,6 +71984,41 @@
         <v>432400</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>106100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72019,6 +72019,41 @@
         <v>106100</v>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>216700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72054,6 +72054,41 @@
         <v>216700</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>70400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72089,6 +72089,41 @@
         <v>70400</v>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>197600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72124,6 +72124,41 @@
         <v>197600</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>139400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72159,6 +72159,41 @@
         <v>139400</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>81400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72194,6 +72194,41 @@
         <v>81400</v>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>163300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72229,6 +72229,41 @@
         <v>163300</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>279900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7161.xlsx
+++ b/data/7161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72264,6 +72264,41 @@
         <v>279900</v>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>KERJAYA</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
